--- a/projects/table/data.xlsx
+++ b/projects/table/data.xlsx
@@ -1,17 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomas\Documents\My\GithubPage\chalupa99.github.io\projects\table\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F21AF4-266B-4904-9F52-45D47104D6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Food</t>
   </si>
@@ -25,9 +47,6 @@
     <t>štangle</t>
   </si>
   <si>
-    <t>topánky + dráha 1/4</t>
-  </si>
-  <si>
     <t>Marek</t>
   </si>
   <si>
@@ -37,33 +56,43 @@
     <t>Pali</t>
   </si>
   <si>
-    <t>pizza 1/2</t>
-  </si>
-  <si>
     <t>Tomáš</t>
   </si>
   <si>
-    <t>pizza 1/2 + kofola</t>
-  </si>
-  <si>
-    <t>Spolu</t>
-  </si>
-  <si>
-    <t>pozn. dráha</t>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>dráha</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t>topánky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">topánky + 1/4 dráha </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/2 pizza </t>
+  </si>
+  <si>
+    <t>1/2 pizza  + kofola</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -74,43 +103,50 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -300,129 +336,169 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:H1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="4" max="4" width="17.38"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="E1" s="4"/>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3"/>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>4.5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1">
+        <f>H$3 + $H$2/4</f>
+        <v>8.0075000000000003</v>
+      </c>
+      <c r="F2">
+        <f>C2+E2</f>
+        <v>12.5075</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1">
+        <v>23.23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3">
-        <f t="shared" ref="E2:E5" si="1">2.2 + $E$7/4</f>
-        <v>8.0075</v>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1">
+        <f>H$3 + $H$2/4</f>
+        <v>8.0075000000000003</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F5" si="0">C3+E3</f>
+        <v>8.0075000000000003</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3">
+        <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="3">
-        <f t="shared" si="1"/>
-        <v>8.0075</v>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1">
+        <f>H$3 + $H$2/4</f>
+        <v>8.0075000000000003</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>12.807500000000001</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2">
-        <v>4.8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3">
-        <f t="shared" si="1"/>
-        <v>8.0075</v>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1">
+        <f>4.8 + 2.4</f>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1">
+        <f>H$3 + $H$2/4</f>
+        <v>8.0075000000000003</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>15.2075</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2">
-        <f> 4.8 + 2.4</f>
-        <v>7.2</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="3">
-        <f t="shared" si="1"/>
-        <v>8.0075</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <f>SUM(C2:C5)</f>
         <v>16.5</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="1">
         <f>SUM(E2:E5)</f>
         <v>32.03</v>
       </c>
+      <c r="F6" t="str">
+        <f>IF(C6+E6 = SUM(F2:F5), "ok", "oops")</f>
+        <v>ok</v>
+      </c>
     </row>
-    <row r="7">
-      <c r="D7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="2">
-        <v>23.23</v>
-      </c>
-    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="B1:C1"/>
+    <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/projects/table/data.xlsx
+++ b/projects/table/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomas\Documents\My\GithubPage\chalupa99.github.io\projects\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F21AF4-266B-4904-9F52-45D47104D6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338A420F-0D79-4664-9F70-6B32F11CDAB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,7 +349,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -460,7 +460,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="1">
-        <f>4.8 + 2.4</f>
+        <f xml:space="preserve"> 4.8 + 2.4</f>
         <v>7.1999999999999993</v>
       </c>
       <c r="D5" s="1" t="s">

--- a/projects/table/data.xlsx
+++ b/projects/table/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomas\Documents\My\GithubPage\chalupa99.github.io\projects\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338A420F-0D79-4664-9F70-6B32F11CDAB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228101A2-B3BA-4409-94AF-2C2434877F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,7 +349,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A7" sqref="A7:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
